--- a/documentation/0 architecture/design/error/에러 발생 위치별 대응 방법 가이드.xlsx
+++ b/documentation/0 architecture/design/error/에러 발생 위치별 대응 방법 가이드.xlsx
@@ -10,6 +10,10 @@
     <sheet name="Event" sheetId="1" r:id="rId1"/>
     <sheet name="Logging" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Event!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Event!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -149,14 +153,6 @@
   </si>
   <si>
     <t>존재하지 않는 URL 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Server의 error page 처리 설정에 따름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Application Server의 error 처리 설정에 따름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defaultErrorView 속성에 지정된 에러 페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예외의 상세 내용을 Logging 한다.
 내장 ExceptionResolver보다 우선 순위를 높이되, 페이지 이동을 하지 않는다. (return null)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +336,23 @@
   </si>
   <si>
     <t>이벤트 발생 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application Server의 error 처리 설정에 따름
+표시할 error page는 반드시정적인 html 파일이어야 함
+단, http status code 500이거나 isErrorPage에 지정된 에러페이지는 동적 jsp 파일이어야 함 (에러 상세를 표시할 수 있도록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Server의 error page 처리 설정에 따름
+표시할 error page는 반드시 정적인 html 파일이어야 함
+WebtoB: http.m 파일에서 NODE절, VHOST절의 ErrorDocument 항목 설정, ERRORDOCUMENT 절 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultErrorView 속성에 지정된 에러 페이지로 이동한다.
+web.xml의 error-page 보다 우선 순위가 높다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,45 +786,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="125.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="83.625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -827,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -836,7 +848,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>33</v>
@@ -844,47 +856,47 @@
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
+      <c r="G3" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
+      <c r="G4" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -896,14 +908,14 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -918,14 +930,14 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -940,14 +952,14 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -964,24 +976,24 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -992,24 +1004,24 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1020,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -1040,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
@@ -1057,20 +1069,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1084,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
@@ -1104,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
@@ -1126,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -1143,24 +1155,24 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,17 +1180,17 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1189,22 +1201,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1218,20 +1230,20 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1244,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
@@ -1264,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
@@ -1284,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
@@ -1304,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
@@ -1324,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
@@ -1344,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
@@ -1364,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>31</v>
@@ -1384,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
@@ -1404,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
@@ -1424,7 +1436,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>31</v>
@@ -1444,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>31</v>
@@ -1462,7 +1474,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>31</v>
@@ -1480,7 +1492,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1492,8 +1504,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L에러 발생 위치별 대응 방법&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1502,7 +1518,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1514,99 +1530,99 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="9"/>
     </row>
